--- a/资源文件/flash资源/srcdata/flash资源表说明.xlsx
+++ b/资源文件/flash资源/srcdata/flash资源表说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>资源名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,35 +74,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blue_fish.bmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red_fish.bmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crocodile.bmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红鱼图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小蓝鱼图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fatfs使用的unicode2gbk转换表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UNIGBK.BIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue_fish_ARGB8888.bmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crocodile_ARGB8888.bmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_fish_ARGB8888.bmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蓝鱼图片，chrome加速demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红鱼图片，chrome加速demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼图片，chrome加速demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui_demo_pic.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告页面的展示图片，slide window</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -521,34 +529,42 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/资源文件/flash资源/srcdata/flash资源表说明.xlsx
+++ b/资源文件/flash资源/srcdata/flash资源表说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>资源名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,34 @@
   </si>
   <si>
     <t>广告页面的展示图片，slide window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUSIC48_48.xft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUSIC64_64.xft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUSIC72_72.xft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUSICP200_200.xft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词，列表，音量图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一首，下一首图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间的暂停播放按键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +161,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,14 +187,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="标题 2" xfId="1" builtinId="17"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -470,18 +524,18 @@
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -565,6 +619,35 @@
       </c>
       <c r="B11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
